--- a/201716064124张有胜.xlsx
+++ b/201716064124张有胜.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17424" windowHeight="9024"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="104">
   <si>
     <t>日期</t>
   </si>
@@ -304,6 +304,36 @@
 s=jieba.cut("大家好",cut_all=False)
 print("/".join(s))
 </t>
+  </si>
+  <si>
+    <t>隐马尔可夫模型  HMM</t>
+  </si>
+  <si>
+    <t>根据概率来分词</t>
+  </si>
+  <si>
+    <t>条件随机场  CRF</t>
+  </si>
+  <si>
+    <t>都是B M E S</t>
+  </si>
+  <si>
+    <t>N元文法模型（N-gram</t>
+  </si>
+  <si>
+    <t>中文分词 算法分类（3大类）</t>
+  </si>
+  <si>
+    <t>已做笔记</t>
+  </si>
+  <si>
+    <t>中文分词工具介绍(5中)</t>
+  </si>
+  <si>
+    <t>了解新名字—embeddingc曾和embedding神经网络</t>
+  </si>
+  <si>
+    <t>待做笔记</t>
   </si>
 </sst>
 </file>
@@ -311,10 +341,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -348,6 +378,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -356,29 +394,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,15 +402,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,10 +432,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -442,14 +459,6 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -470,8 +479,29 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -479,7 +509,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -500,13 +530,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,25 +608,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,139 +692,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,11 +864,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -869,26 +905,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -911,22 +932,31 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -942,7 +972,7 @@
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -951,137 +981,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1149,6 +1179,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1501,8 +1537,8 @@
   <sheetPr/>
   <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91:D93"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -2573,40 +2609,62 @@
         <v>43782</v>
       </c>
       <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
+      <c r="C94" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="95" ht="40" customHeight="1" spans="1:4">
       <c r="A95" s="6"/>
       <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
+      <c r="C95" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D95" s="23" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="96" ht="40" customHeight="1" spans="1:4">
       <c r="A96" s="5"/>
       <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
+      <c r="C96" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D96" s="24"/>
     </row>
     <row r="97" ht="40" customHeight="1" spans="1:4">
       <c r="A97" s="3">
         <v>43783</v>
       </c>
       <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
+      <c r="C97" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="98" ht="40" customHeight="1" spans="1:4">
       <c r="A98" s="6"/>
       <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
+      <c r="C98" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="99" ht="40" customHeight="1" spans="1:4">
       <c r="A99" s="5"/>
       <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
+      <c r="C99" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="100" ht="40" customHeight="1" spans="1:4">
       <c r="A100" s="3">
@@ -2746,7 +2804,7 @@
     <row r="136" ht="40" customHeight="1"/>
     <row r="137" ht="40" customHeight="1"/>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="51">
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C36:D36"/>
@@ -2796,6 +2854,7 @@
     <mergeCell ref="A127:A129"/>
     <mergeCell ref="A130:A132"/>
     <mergeCell ref="A133:A135"/>
+    <mergeCell ref="D95:D96"/>
     <mergeCell ref="C91:D93"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/201716064124张有胜.xlsx
+++ b/201716064124张有胜.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="17640" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -330,7 +330,7 @@
     <t>中文分词工具介绍(5中)</t>
   </si>
   <si>
-    <t>了解新名字—embeddingc曾和embedding神经网络</t>
+    <t>了解新名字—embeddingc层和embedding神经网络</t>
   </si>
   <si>
     <t>待做笔记</t>
@@ -378,11 +378,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -402,7 +409,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -432,29 +477,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -478,38 +508,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -530,43 +530,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,139 +644,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,6 +864,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -905,48 +938,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -961,6 +952,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -969,10 +969,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -981,133 +981,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1537,8 +1537,8 @@
   <sheetPr/>
   <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="G96" sqref="G96"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>

--- a/201716064124张有胜.xlsx
+++ b/201716064124张有胜.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17640" windowHeight="8484"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="110">
   <si>
     <t>日期</t>
   </si>
@@ -306,7 +306,7 @@
 </t>
   </si>
   <si>
-    <t>隐马尔可夫模型  HMM</t>
+    <t xml:space="preserve">N元文法模型（N-gram </t>
   </si>
   <si>
     <t>根据概率来分词</t>
@@ -318,7 +318,7 @@
     <t>都是B M E S</t>
   </si>
   <si>
-    <t>N元文法模型（N-gram</t>
+    <t xml:space="preserve"> 隐马尔可夫模型  HMM</t>
   </si>
   <si>
     <t>中文分词 算法分类（3大类）</t>
@@ -334,6 +334,25 @@
   </si>
   <si>
     <t>待做笔记</t>
+  </si>
+  <si>
+    <t>One-hot编码(独热编码)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">编码中有提到特征值和特征向量及这个编码的优缺点
+</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/zongfa/p/9305657.html https://www.jianshu.com/p/cb344e1c860a</t>
+  </si>
+  <si>
+    <t>代做</t>
+  </si>
+  <si>
+    <t>文本相似度</t>
+  </si>
+  <si>
+    <t>欧拉距离，d=|s1-s2|</t>
   </si>
 </sst>
 </file>
@@ -341,10 +360,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -371,8 +390,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,31 +420,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -445,17 +443,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -463,30 +452,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -508,12 +474,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -530,187 +549,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,6 +916,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -929,6 +963,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -937,30 +980,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -969,10 +988,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -981,137 +1000,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1186,6 +1205,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1537,8 +1562,8 @@
   <sheetPr/>
   <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1546,7 +1571,7 @@
     <col min="1" max="1" width="34.1111111111111" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.5555555555556" style="1" customWidth="1"/>
     <col min="3" max="3" width="43.7777777777778" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.1111111111111" style="1" customWidth="1"/>
+    <col min="4" max="4" width="54" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2609,7 +2634,7 @@
         <v>43782</v>
       </c>
       <c r="B94" s="2"/>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="4" t="s">
         <v>94</v>
       </c>
       <c r="D94" s="2" t="s">
@@ -2629,7 +2654,7 @@
     <row r="96" ht="40" customHeight="1" spans="1:4">
       <c r="A96" s="5"/>
       <c r="B96" s="2"/>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="4" t="s">
         <v>98</v>
       </c>
       <c r="D96" s="24"/>
@@ -2668,21 +2693,39 @@
     </row>
     <row r="100" ht="40" customHeight="1" spans="1:4">
       <c r="A100" s="3">
-        <v>43784</v>
-      </c>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-    </row>
-    <row r="101" ht="40" customHeight="1" spans="1:1">
+        <v>43788</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D100" s="25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="101" ht="40" customHeight="1" spans="1:4">
       <c r="A101" s="6"/>
+      <c r="B101" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="102" ht="40" customHeight="1" spans="1:1">
       <c r="A102" s="5"/>
     </row>
-    <row r="103" ht="40" customHeight="1" spans="1:1">
+    <row r="103" ht="40" customHeight="1" spans="1:3">
       <c r="A103" s="3">
-        <v>43696</v>
+        <v>43797</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="104" ht="40" customHeight="1" spans="1:1">
@@ -2857,6 +2900,9 @@
     <mergeCell ref="D95:D96"/>
     <mergeCell ref="C91:D93"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D100" r:id="rId1" display="https://www.cnblogs.com/zongfa/p/9305657.html https://www.jianshu.com/p/cb344e1c860a" tooltip="https://www.cnblogs.com/zongfa/p/9305657.html https://www.jianshu.com/p/cb344e1c860a"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
